--- a/Test Data Driven/AI-Generated/Common/selectProductVariantAndAddToCart.xlsx
+++ b/Test Data Driven/AI-Generated/Common/selectProductVariantAndAddToCart.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -566,6 +566,80 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 Silicone Case</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>\31 52184-case-685</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>\31 52185-case-689</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 Silicone Case</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>\31 52184-case-685</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>\31 52185-case-689</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/selectProductVariantAndAddToCart.xlsx
+++ b/Test Data Driven/AI-Generated/Common/selectProductVariantAndAddToCart.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,6 +640,80 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 Silicone Case</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>\31 52184-case-685</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>\31 52185-case-689</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>products__item\ in-stock\ products__item_3-in-row"]:nth-child(2) [type="button</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>New!iPhone 15 Silicone Case</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Buy</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>\31 52184-case-685</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>\31 52185-case-689</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>iPhone 15 Plus</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cypress</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
